--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboSourceProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboSourceProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4774DC79-8B47-45EB-8693-03BFE91161B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023E40F9-282E-4A0D-9662-318EF4C37E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Keyword</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_Nacubo</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67FE2C5-0520-49C6-94B1-F01BCA1A7D63}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,14 +646,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -657,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -668,13 +672,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -682,13 +686,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -696,13 +700,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -713,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -724,36 +728,50 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
